--- a/student_and_unemployed_applicants_merge_styled_df.xlsx
+++ b/student_and_unemployed_applicants_merge_styled_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="89">
   <si>
     <t>SK_ID_CURR_x</t>
   </si>
@@ -85,6 +85,9 @@
     <t>ORGANIZATION_TYPE_x</t>
   </si>
   <si>
+    <t>WEEKEND_APPR_PROCESS_START_x</t>
+  </si>
+  <si>
     <t>FRAUD_RISK_x</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>ORGANIZATION_TYPE_y</t>
   </si>
   <si>
+    <t>WEEKEND_APPR_PROCESS_START_y</t>
+  </si>
+  <si>
     <t>FRAUD_RISK_y</t>
   </si>
   <si>
@@ -229,28 +235,31 @@
     <t>WEDNESDAY</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>Business Entity Type 2</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Business Entity Type 3</t>
+  </si>
+  <si>
+    <t>Trade: type 6</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Industry: type 11</t>
+  </si>
+  <si>
     <t>SATURDAY</t>
-  </si>
-  <si>
-    <t>TUESDAY</t>
-  </si>
-  <si>
-    <t>Business Entity Type 2</t>
-  </si>
-  <si>
-    <t>Medicine</t>
-  </si>
-  <si>
-    <t>Business Entity Type 3</t>
-  </si>
-  <si>
-    <t>Trade: type 6</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Industry: type 11</t>
   </si>
   <si>
     <t>Medium Risk</t>
@@ -637,13 +646,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,22 +791,28 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:48">
       <c r="A2" s="2">
         <v>111963</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -815,23 +830,23 @@
         <v>468000</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R2" s="2">
         <v>2</v>
@@ -843,95 +858,101 @@
         <v>2</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V2" s="3">
         <v>13</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="2">
         <v>189489</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="2">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="2">
         <v>1</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AF2" s="2">
         <v>54000</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AG2" s="2">
         <v>634500</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AH2" s="2">
         <v>23643</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AI2" s="2">
         <v>634500</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN2" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="AO2" s="2"/>
-      <c r="AP2" s="2">
-        <v>3</v>
-      </c>
+      <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>3</v>
       </c>
       <c r="AR2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>2</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:48">
       <c r="A3" s="2">
         <v>111963</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -949,23 +970,23 @@
         <v>468000</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R3" s="2">
         <v>2</v>
@@ -977,97 +998,103 @@
         <v>2</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V3" s="3">
         <v>13</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z3" s="2">
         <v>232520</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="AA3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" s="2">
         <v>0</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AF3" s="2">
         <v>63000</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AG3" s="2">
         <v>1381500</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AH3" s="2">
         <v>44163</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AI3" s="2">
         <v>1381500</v>
       </c>
-      <c r="AI3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ3" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN3" s="2">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" s="2">
         <v>7</v>
       </c>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2">
-        <v>2</v>
-      </c>
+      <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>2</v>
       </c>
       <c r="AR3" s="2">
         <v>2</v>
       </c>
-      <c r="AS3" s="2" t="s">
-        <v>84</v>
+      <c r="AS3" s="2">
+        <v>2</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:48">
       <c r="A4" s="2">
         <v>119612</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1085,19 +1112,19 @@
         <v>315000</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1111,95 +1138,101 @@
         <v>2</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V4" s="3">
         <v>10</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z4" s="2">
         <v>343178</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="2">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="2">
         <v>0</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AF4" s="2">
         <v>135000</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AG4" s="2">
         <v>387000</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AH4" s="2">
         <v>22234.5</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AI4" s="2">
         <v>387000</v>
       </c>
-      <c r="AI4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ4" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN4" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="AO4" s="2"/>
-      <c r="AP4" s="2">
-        <v>2</v>
-      </c>
+      <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>2</v>
       </c>
       <c r="AR4" s="2">
         <v>2</v>
       </c>
-      <c r="AS4" s="2" t="s">
-        <v>84</v>
+      <c r="AS4" s="2">
+        <v>2</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:48">
       <c r="A5" s="2">
         <v>149408</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -1217,23 +1250,23 @@
         <v>238500</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R5" s="2">
         <v>2</v>
@@ -1245,95 +1278,101 @@
         <v>1</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V5" s="3">
         <v>13</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" s="2">
         <v>190812</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="2">
+        <v>51</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE5" s="2">
         <v>0</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AF5" s="2">
         <v>45000</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AG5" s="2">
         <v>328500</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AH5" s="2">
         <v>10629</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AI5" s="2">
         <v>328500</v>
       </c>
-      <c r="AI5" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ5" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AN5" s="2"/>
+      <c r="AN5" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="AO5" s="2"/>
-      <c r="AP5" s="2">
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2">
         <v>1</v>
       </c>
-      <c r="AQ5" s="2">
-        <v>2</v>
-      </c>
       <c r="AR5" s="2">
         <v>2</v>
       </c>
-      <c r="AS5" s="2" t="s">
-        <v>84</v>
+      <c r="AS5" s="2">
+        <v>2</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:48">
       <c r="A6" s="2">
         <v>157780</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1351,25 +1390,25 @@
         <v>1206000</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" s="2">
         <v>11</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R6" s="2">
         <v>4</v>
@@ -1381,95 +1420,101 @@
         <v>2</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V6" s="3">
         <v>10</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z6" s="2">
         <v>343178</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" s="2">
+        <v>51</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE6" s="2">
         <v>0</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AF6" s="2">
         <v>135000</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AG6" s="2">
         <v>387000</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AH6" s="2">
         <v>22234.5</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AI6" s="2">
         <v>387000</v>
       </c>
-      <c r="AI6" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ6" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN6" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="AO6" s="2"/>
-      <c r="AP6" s="2">
-        <v>2</v>
-      </c>
+      <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>2</v>
       </c>
       <c r="AR6" s="2">
         <v>2</v>
       </c>
-      <c r="AS6" s="2" t="s">
-        <v>84</v>
+      <c r="AS6" s="2">
+        <v>2</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:48">
       <c r="A7" s="2">
         <v>170882</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1487,23 +1532,23 @@
         <v>585000</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R7" s="2">
         <v>3</v>
@@ -1515,95 +1560,101 @@
         <v>1</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V7" s="3">
         <v>15</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y7" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z7" s="2">
         <v>411290</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="AA7" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD7" s="2">
+        <v>51</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE7" s="2">
         <v>0</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>135000</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>450000</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AH7" s="2">
         <v>22500</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI7" s="2">
         <v>450000</v>
       </c>
-      <c r="AI7" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ7" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN7" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="AO7" s="2"/>
-      <c r="AP7" s="2">
-        <v>2</v>
-      </c>
+      <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
       </c>
-      <c r="AS7" s="2" t="s">
-        <v>84</v>
+      <c r="AS7" s="2">
+        <v>1</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:48">
       <c r="A8" s="2">
         <v>181167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1621,23 +1672,23 @@
         <v>675000</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R8" s="2">
         <v>1</v>
@@ -1649,95 +1700,101 @@
         <v>2</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V8" s="3">
         <v>14</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z8" s="2">
         <v>453794</v>
       </c>
-      <c r="Z8" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="AA8" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD8" s="2">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE8" s="2">
         <v>0</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AF8" s="2">
         <v>112500</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AG8" s="2">
         <v>900000</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AH8" s="2">
         <v>45000</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AI8" s="2">
         <v>900000</v>
       </c>
-      <c r="AI8" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AK8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2">
-        <v>2</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT8" s="2" t="s">
-        <v>85</v>
+      <c r="AV8" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:48">
       <c r="A9" s="2">
         <v>221688</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1755,23 +1812,23 @@
         <v>661500</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R9" s="2">
         <v>2</v>
@@ -1783,95 +1840,101 @@
         <v>2</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V9" s="3">
         <v>11</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y9" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" s="2">
         <v>104600</v>
       </c>
-      <c r="Z9" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="AA9" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="AE9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="2">
         <v>135000</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AG9" s="2">
         <v>270000</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AH9" s="2">
         <v>13500</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AI9" s="2">
         <v>270000</v>
       </c>
-      <c r="AI9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ9" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN9" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="2">
-        <v>3</v>
-      </c>
+      <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>3</v>
       </c>
       <c r="AR9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>2</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:48">
       <c r="A10" s="2">
         <v>221688</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1889,23 +1952,23 @@
         <v>661500</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R10" s="2">
         <v>2</v>
@@ -1917,97 +1980,103 @@
         <v>2</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V10" s="3">
         <v>11</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z10" s="2">
         <v>143454</v>
       </c>
-      <c r="Z10" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="AA10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD10" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE10" s="2">
         <v>0</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AF10" s="2">
         <v>31500</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AG10" s="2">
         <v>585000</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AH10" s="2">
         <v>26892</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AI10" s="2">
         <v>585000</v>
       </c>
-      <c r="AI10" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ10" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN10" s="2">
+        <v>59</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO10" s="2">
         <v>4</v>
       </c>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2">
-        <v>2</v>
-      </c>
+      <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>2</v>
       </c>
       <c r="AR10" s="2">
         <v>2</v>
       </c>
-      <c r="AS10" s="2" t="s">
-        <v>84</v>
+      <c r="AS10" s="2">
+        <v>2</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:48">
       <c r="A11" s="2">
         <v>316731</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -2025,25 +2094,25 @@
         <v>450000</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="2">
         <v>7</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R11" s="2">
         <v>1</v>
@@ -2055,95 +2124,101 @@
         <v>2</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V11" s="3">
         <v>13</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z11" s="2">
         <v>190812</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD11" s="2">
+        <v>51</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE11" s="2">
         <v>0</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AF11" s="2">
         <v>45000</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AG11" s="2">
         <v>328500</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AH11" s="2">
         <v>10629</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AI11" s="2">
         <v>328500</v>
       </c>
-      <c r="AI11" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ11" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AN11" s="2"/>
+      <c r="AN11" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="AO11" s="2"/>
-      <c r="AP11" s="2">
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2">
         <v>1</v>
       </c>
-      <c r="AQ11" s="2">
-        <v>2</v>
-      </c>
       <c r="AR11" s="2">
         <v>2</v>
       </c>
-      <c r="AS11" s="2" t="s">
-        <v>84</v>
+      <c r="AS11" s="2">
+        <v>2</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:48">
       <c r="A12" s="2">
         <v>405252</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -2162,16 +2237,16 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2185,22 +2260,22 @@
         <v>2</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V12" s="3">
         <v>12</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z12" s="2">
         <v>283948</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>48</v>
@@ -2209,56 +2284,62 @@
         <v>50</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD12" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE12" s="2">
         <v>0</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AF12" s="2">
         <v>90000</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AG12" s="2">
         <v>1804500</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AH12" s="2">
         <v>51538.5</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AI12" s="2">
         <v>1804500</v>
       </c>
-      <c r="AI12" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ12" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN12" s="2">
+        <v>59</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO12" s="2">
         <v>64</v>
       </c>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2">
-        <v>2</v>
-      </c>
+      <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>2</v>
       </c>
       <c r="AR12" s="2">
         <v>2</v>
       </c>
-      <c r="AS12" s="2" t="s">
-        <v>84</v>
+      <c r="AS12" s="2">
+        <v>2</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/student_and_unemployed_applicants_merge_styled_df.xlsx
+++ b/student_and_unemployed_applicants_merge_styled_df.xlsx
@@ -235,7 +235,7 @@
     <t>WEDNESDAY</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>-</t>
   </si>
   <si>
     <t>TUESDAY</t>

--- a/student_and_unemployed_applicants_merge_styled_df.xlsx
+++ b/student_and_unemployed_applicants_merge_styled_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="95">
   <si>
     <t>SK_ID_CURR_x</t>
   </si>
@@ -239,6 +239,24 @@
   </si>
   <si>
     <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
   </si>
   <si>
     <t>Business Entity Type 2</t>
@@ -860,17 +878,17 @@
       <c r="U2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="3">
-        <v>13</v>
+      <c r="V2" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="2">
         <v>189489</v>
@@ -906,7 +924,7 @@
         <v>53</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>58</v>
@@ -929,13 +947,13 @@
         <v>2</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:48">
@@ -1000,17 +1018,17 @@
       <c r="U3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="3">
-        <v>13</v>
+      <c r="V3" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z3" s="2">
         <v>232520</v>
@@ -1046,10 +1064,10 @@
         <v>53</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AM3" s="2" t="s">
         <v>59</v>
@@ -1071,13 +1089,13 @@
         <v>2</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:48">
@@ -1140,17 +1158,17 @@
       <c r="U4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="3">
-        <v>10</v>
+      <c r="V4" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z4" s="2">
         <v>343178</v>
@@ -1186,7 +1204,7 @@
         <v>53</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL4" s="2" t="s">
         <v>57</v>
@@ -1209,13 +1227,13 @@
         <v>2</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:48">
@@ -1280,17 +1298,17 @@
       <c r="U5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="V5" s="3">
-        <v>13</v>
+      <c r="V5" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z5" s="2">
         <v>190812</v>
@@ -1326,7 +1344,7 @@
         <v>53</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL5" s="2" t="s">
         <v>57</v>
@@ -1349,13 +1367,13 @@
         <v>2</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:48">
@@ -1422,17 +1440,17 @@
       <c r="U6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="V6" s="3">
-        <v>10</v>
+      <c r="V6" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z6" s="2">
         <v>343178</v>
@@ -1468,7 +1486,7 @@
         <v>53</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL6" s="2" t="s">
         <v>57</v>
@@ -1491,13 +1509,13 @@
         <v>2</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:48">
@@ -1562,23 +1580,23 @@
       <c r="U7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="V7" s="3">
-        <v>15</v>
+      <c r="V7" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z7" s="2">
         <v>411290</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>50</v>
@@ -1608,7 +1626,7 @@
         <v>53</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL7" s="2" t="s">
         <v>58</v>
@@ -1631,13 +1649,13 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:48">
@@ -1702,23 +1720,23 @@
       <c r="U8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="V8" s="3">
-        <v>14</v>
+      <c r="V8" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z8" s="2">
         <v>453794</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>49</v>
@@ -1748,7 +1766,7 @@
         <v>53</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL8" s="2" t="s">
         <v>58</v>
@@ -1771,13 +1789,13 @@
         <v>2</v>
       </c>
       <c r="AT8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AU8" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="AV8" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:48">
@@ -1842,23 +1860,23 @@
       <c r="U9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="V9" s="3">
-        <v>11</v>
+      <c r="V9" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z9" s="2">
         <v>104600</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AB9" s="2" t="s">
         <v>50</v>
@@ -1888,13 +1906,13 @@
         <v>53</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AN9" s="2" t="s">
         <v>62</v>
@@ -1911,13 +1929,13 @@
         <v>2</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU9" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:48">
@@ -1982,17 +2000,17 @@
       <c r="U10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="V10" s="3">
-        <v>11</v>
+      <c r="V10" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z10" s="2">
         <v>143454</v>
@@ -2028,7 +2046,7 @@
         <v>53</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL10" s="2" t="s">
         <v>57</v>
@@ -2053,13 +2071,13 @@
         <v>2</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:48">
@@ -2126,17 +2144,17 @@
       <c r="U11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="V11" s="3">
-        <v>13</v>
+      <c r="V11" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z11" s="2">
         <v>190812</v>
@@ -2172,7 +2190,7 @@
         <v>53</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL11" s="2" t="s">
         <v>57</v>
@@ -2195,13 +2213,13 @@
         <v>2</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:48">
@@ -2262,17 +2280,17 @@
       <c r="U12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V12" s="3">
-        <v>12</v>
+      <c r="V12" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z12" s="2">
         <v>283948</v>
@@ -2308,7 +2326,7 @@
         <v>53</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL12" s="2" t="s">
         <v>57</v>
@@ -2333,13 +2351,13 @@
         <v>2</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU12" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
